--- a/data/panelapp/au/Hydrocephalus_Ventriculomegaly.xlsx
+++ b/data/panelapp/au/Hydrocephalus_Ventriculomegaly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388259</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388270</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388273</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388275</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388278</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388281</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388284</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388286</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388289</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388292</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388294</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388297</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388299</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388302</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388304</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388307</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388310</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388313</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388315</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388318</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388320</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388323</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388325</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388328</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388331</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388333</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388336</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388338</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388341</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388343</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388346</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388348</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388351</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388354</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388356</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388359</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388361</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388363</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388366</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388368</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388371</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388374</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388377</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388379</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388381</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388384</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388386</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388389</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388391</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388394</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388396</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388399</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388402</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388404</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388407</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388409</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388412</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388414</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388417</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388419</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388422</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388424</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388427</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388429</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388433</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388436</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388439</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388441</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388444</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388446</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388449</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388451</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388454</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388456</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388459</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388461</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388466</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388469</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Hydrocephalus_Ventriculomegaly</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388471</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B4GAT1</t>
+          <t>ATP11A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>beta-1,4-glucuronyltransferase 1</t>
+          <t>ATPase phospholipid transporting 11A</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388474</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HYLS1</t>
+          <t>B4GAT1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HYLS1, centriolar and ciliogenesis associated</t>
+          <t>beta-1,4-glucuronyltransferase 1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388476</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ISLR2</t>
+          <t>HYLS1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>immunoglobulin superfamily containing leucine rich repeat 2</t>
+          <t>HYLS1, centriolar and ciliogenesis associated</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388479</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>KIF7</t>
+          <t>ISLR2</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>kinesin family member 7</t>
+          <t>immunoglobulin superfamily containing leucine rich repeat 2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388481</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MTOR</t>
+          <t>KIF7</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>mechanistic target of rapamycin kinase</t>
+          <t>kinesin family member 7</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388484</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>WDR81</t>
+          <t>MTOR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WD repeat domain 81</t>
+          <t>mechanistic target of rapamycin kinase</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2577,6 +3002,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388487</t>
         </is>
       </c>
     </row>
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WDR91</t>
+          <t>WDR81</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>WD repeat domain 91</t>
+          <t>WD repeat domain 81</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388489</t>
         </is>
       </c>
     </row>
@@ -2611,22 +3046,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>COG8</t>
+          <t>WDR91</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>component of oligomeric golgi complex 8</t>
+          <t>WD repeat domain 91</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388492</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FMR1</t>
+          <t>COG8</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>fragile X mental retardation 1</t>
+          <t>component of oligomeric golgi complex 8</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388494</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MYMK</t>
+          <t>FMR1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>myomaker, myoblast fusion factor</t>
+          <t>fragile X mental retardation 1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388497</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TOGARAM1</t>
+          <t>MYMK</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TOG array regulator of axonemal microtubules 1</t>
+          <t>myomaker, myoblast fusion factor</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388500</t>
         </is>
       </c>
     </row>
@@ -2711,22 +3166,57 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>TOGARAM1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>TOG array regulator of axonemal microtubules 1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388502</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>ZNF3</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>zinc finger protein 3</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Hydrocephalus_Ventriculomegaly</t>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:51:07.388505</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Hydrocephalus_Ventriculomegaly.xlsx
+++ b/data/panelapp/au/Hydrocephalus_Ventriculomegaly.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388259</t>
+          <t>2021-10-05 14:34:02.702105</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388270</t>
+          <t>2021-10-05 14:34:02.702113</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388273</t>
+          <t>2021-10-05 14:34:02.702116</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388275</t>
+          <t>2021-10-05 14:34:02.702118</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388278</t>
+          <t>2021-10-05 14:34:02.702121</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388281</t>
+          <t>2021-10-05 14:34:02.702124</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388284</t>
+          <t>2021-10-05 14:34:02.702126</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388286</t>
+          <t>2021-10-05 14:34:02.702129</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388289</t>
+          <t>2021-10-05 14:34:02.702132</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388292</t>
+          <t>2021-10-05 14:34:02.702134</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388294</t>
+          <t>2021-10-05 14:34:02.702137</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388297</t>
+          <t>2021-10-05 14:34:02.702139</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388299</t>
+          <t>2021-10-05 14:34:02.702142</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388302</t>
+          <t>2021-10-05 14:34:02.702144</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388304</t>
+          <t>2021-10-05 14:34:02.702147</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388307</t>
+          <t>2021-10-05 14:34:02.702149</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388310</t>
+          <t>2021-10-05 14:34:02.702152</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388313</t>
+          <t>2021-10-05 14:34:02.702155</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388315</t>
+          <t>2021-10-05 14:34:02.702157</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388318</t>
+          <t>2021-10-05 14:34:02.702160</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388320</t>
+          <t>2021-10-05 14:34:02.702162</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388323</t>
+          <t>2021-10-05 14:34:02.702165</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388325</t>
+          <t>2021-10-05 14:34:02.702167</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388328</t>
+          <t>2021-10-05 14:34:02.702169</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388331</t>
+          <t>2021-10-05 14:34:02.702172</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388333</t>
+          <t>2021-10-05 14:34:02.702175</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388336</t>
+          <t>2021-10-05 14:34:02.702177</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388338</t>
+          <t>2021-10-05 14:34:02.702180</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388341</t>
+          <t>2021-10-05 14:34:02.702182</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388343</t>
+          <t>2021-10-05 14:34:02.702185</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388346</t>
+          <t>2021-10-05 14:34:02.702187</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388348</t>
+          <t>2021-10-05 14:34:02.702190</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388351</t>
+          <t>2021-10-05 14:34:02.702193</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388354</t>
+          <t>2021-10-05 14:34:02.702195</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388356</t>
+          <t>2021-10-05 14:34:02.702198</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388359</t>
+          <t>2021-10-05 14:34:02.702200</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388361</t>
+          <t>2021-10-05 14:34:02.702203</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388363</t>
+          <t>2021-10-05 14:34:02.702205</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388366</t>
+          <t>2021-10-05 14:34:02.702208</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388368</t>
+          <t>2021-10-05 14:34:02.702210</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388371</t>
+          <t>2021-10-05 14:34:02.702213</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388374</t>
+          <t>2021-10-05 14:34:02.702216</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388377</t>
+          <t>2021-10-05 14:34:02.702218</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388379</t>
+          <t>2021-10-05 14:34:02.702221</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388381</t>
+          <t>2021-10-05 14:34:02.702223</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388384</t>
+          <t>2021-10-05 14:34:02.702226</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388386</t>
+          <t>2021-10-05 14:34:02.702228</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388389</t>
+          <t>2021-10-05 14:34:02.702230</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388391</t>
+          <t>2021-10-05 14:34:02.702233</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388394</t>
+          <t>2021-10-05 14:34:02.702235</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388396</t>
+          <t>2021-10-05 14:34:02.702238</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388399</t>
+          <t>2021-10-05 14:34:02.702240</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388402</t>
+          <t>2021-10-05 14:34:02.702243</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388404</t>
+          <t>2021-10-05 14:34:02.702246</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388407</t>
+          <t>2021-10-05 14:34:02.702248</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388409</t>
+          <t>2021-10-05 14:34:02.702251</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388412</t>
+          <t>2021-10-05 14:34:02.702253</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388414</t>
+          <t>2021-10-05 14:34:02.702256</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388417</t>
+          <t>2021-10-05 14:34:02.702258</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388419</t>
+          <t>2021-10-05 14:34:02.702261</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388422</t>
+          <t>2021-10-05 14:34:02.702263</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388424</t>
+          <t>2021-10-05 14:34:02.702266</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388427</t>
+          <t>2021-10-05 14:34:02.702268</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388429</t>
+          <t>2021-10-05 14:34:02.702271</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388433</t>
+          <t>2021-10-05 14:34:02.702274</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388436</t>
+          <t>2021-10-05 14:34:02.702277</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388439</t>
+          <t>2021-10-05 14:34:02.702280</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388441</t>
+          <t>2021-10-05 14:34:02.702282</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388444</t>
+          <t>2021-10-05 14:34:02.702285</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388446</t>
+          <t>2021-10-05 14:34:02.702288</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388449</t>
+          <t>2021-10-05 14:34:02.702290</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388451</t>
+          <t>2021-10-05 14:34:02.702293</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388454</t>
+          <t>2021-10-05 14:34:02.702295</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388456</t>
+          <t>2021-10-05 14:34:02.702298</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388459</t>
+          <t>2021-10-05 14:34:02.702300</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388461</t>
+          <t>2021-10-05 14:34:02.702303</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388466</t>
+          <t>2021-10-05 14:34:02.702308</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388469</t>
+          <t>2021-10-05 14:34:02.702311</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388471</t>
+          <t>2021-10-05 14:34:02.702313</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388474</t>
+          <t>2021-10-05 14:34:02.702316</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388476</t>
+          <t>2021-10-05 14:34:02.702318</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388479</t>
+          <t>2021-10-05 14:34:02.702321</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388481</t>
+          <t>2021-10-05 14:34:02.702323</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388484</t>
+          <t>2021-10-05 14:34:02.702326</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388487</t>
+          <t>2021-10-05 14:34:02.702328</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388489</t>
+          <t>2021-10-05 14:34:02.702330</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388492</t>
+          <t>2021-10-05 14:34:02.702333</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388494</t>
+          <t>2021-10-05 14:34:02.702336</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388497</t>
+          <t>2021-10-05 14:34:02.702338</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388500</t>
+          <t>2021-10-05 14:34:02.702340</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388502</t>
+          <t>2021-10-05 14:34:02.702343</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,91 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:51:07.388505</t>
+          <t>2021-10-05 14:34:02.702345</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hydrocephalus_Ventriculomegaly</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T04:43:25.926555Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:34:02.698423</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/115/?format=json</t>
         </is>
       </c>
     </row>
